--- a/xlsx-to-json/STO Acronyms.xlsx
+++ b/xlsx-to-json/STO Acronyms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\xlsx-to-json\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\VGER\xlsx-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A47E7A4-BCBB-48FF-9E58-4D2470DEB21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA324CB-6A8C-42FD-8C64-BC349B84AECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="574">
   <si>
     <t>Acronym</t>
   </si>
@@ -1747,6 +1747,15 @@
   </si>
   <si>
     <t>Dark Matter (Quantum) Torpedo</t>
+  </si>
+  <si>
+    <t>DEW</t>
+  </si>
+  <si>
+    <t>Directed Energy Weapons</t>
+  </si>
+  <si>
+    <t>generic term for cannons and beams</t>
   </si>
 </sst>
 </file>
@@ -2080,11 +2089,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:C269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2808,98 +2817,98 @@
     </row>
     <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B69" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+    <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B72" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>38</v>
@@ -2907,101 +2916,101 @@
     </row>
     <row r="75" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+    <row r="78" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B81" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
+    <row r="82" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B82" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -3009,195 +3018,195 @@
         <v>182</v>
       </c>
       <c r="B84" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+    <row r="86" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B86" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
+    <row r="87" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B87" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+    <row r="88" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B88" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
+    <row r="89" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B89" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+    <row r="90" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B90" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+    <row r="94" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B94" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B98" s="13" t="str">
+      <c r="B99" s="13" t="str">
         <f>HYPERLINK("https://sto.fandom.com/wiki/Skill:_Electro-Plasma_System_Flow", "Electro-Plasma System Flow")</f>
         <v>Electro-Plasma System Flow</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C99" s="3" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>5</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>5</v>
@@ -3205,10 +3214,10 @@
     </row>
     <row r="102" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>5</v>
@@ -3216,10 +3225,10 @@
     </row>
     <row r="103" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>5</v>
@@ -3227,381 +3236,381 @@
     </row>
     <row r="104" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B110" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
+    <row r="111" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B111" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>203</v>
+        <v>238</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B115" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>5</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>253</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>38</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
+    <row r="121" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B121" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A123" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B123" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B126" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>261</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A130" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B130" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B132" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="15" t="s">
+    <row r="133" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A133" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B133" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
+    <row r="134" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B134" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A134" s="15" t="s">
+    <row r="135" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A135" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C135" s="3" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B137" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>293</v>
@@ -3611,102 +3620,102 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>296</v>
+      <c r="A139" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>297</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B142" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A142" s="15" t="s">
+    <row r="143" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A143" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B143" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>86</v>
+        <v>311</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>317</v>
+      <c r="A147" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -3714,7 +3723,7 @@
         <v>316</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>207</v>
@@ -3722,304 +3731,304 @@
     </row>
     <row r="149" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>322</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>325</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>157</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A154" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B154" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A157" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B157" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
+    <row r="158" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A158" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B158" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A158" s="15" t="s">
+    <row r="159" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A159" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B159" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
+    <row r="160" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A160" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B160" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>346</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>351</v>
+        <v>198</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>353</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>198</v>
+        <v>354</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A167" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B167" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C167" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
+    <row r="168" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B168" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C168" s="3" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A170" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B170" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C170" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
+    <row r="171" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A171" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C171" s="3" t="s">
         <v>368</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A173" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B173" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C173" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
+    <row r="174" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A174" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B174" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>379</v>
@@ -4030,318 +4039,318 @@
     </row>
     <row r="177" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>379</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>118</v>
+        <v>380</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B178" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>388</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>335</v>
+        <v>386</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>29</v>
+        <v>336</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A183" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B183" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C183" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
+    <row r="184" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B184" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A186" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B186" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A186" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A188" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B188" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A190" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B190" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C190" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="s">
+    <row r="191" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A191" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B191" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C191" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A191" s="15" t="s">
+    <row r="192" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A192" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B192" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C192" s="3" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A192" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A195" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B195" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C195" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A195" s="15" t="s">
+    <row r="196" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A196" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B196" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C196" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A196" s="5" t="s">
+    <row r="197" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A197" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B197" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C197" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A197" s="15" t="s">
+    <row r="198" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A198" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B198" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C198" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A198" s="5" t="s">
+    <row r="199" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A199" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B199" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C199" s="3" t="s">
         <v>368</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A201" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B201" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C201" s="3" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A201" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A203" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B203" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C203" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>49</v>
+        <v>437</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>49</v>
@@ -4349,112 +4358,112 @@
     </row>
     <row r="206" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B207" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>445</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>448</v>
+        <v>98</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>447</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>198</v>
+        <v>448</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A212" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B212" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C212" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A212" s="5" t="s">
+    <row r="213" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B213" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C213" s="3" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B213" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>458</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>388</v>
+        <v>49</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>462</v>
+        <v>388</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -4462,32 +4471,32 @@
         <v>461</v>
       </c>
       <c r="B216" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A217" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B217" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C217" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A217" s="5" t="s">
+    <row r="218" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A218" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B218" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C218" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -4495,269 +4504,269 @@
         <v>465</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A220" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>468</v>
+      <c r="A220" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A222" s="15" t="s">
+      <c r="A222" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A223" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="B223" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C223" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A223" s="5" t="s">
+    <row r="224" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A224" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B224" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C224" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C224" s="3" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>478</v>
+      <c r="B225" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>207</v>
+        <v>477</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B229" s="10" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>478</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>488</v>
+        <v>207</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="B231" s="10" t="s">
-        <v>502</v>
+        <v>486</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>487</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>311</v>
+        <v>488</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A233" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B233" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C233" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A233" s="5" t="s">
+    <row r="234" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A234" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B234" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C234" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C234" s="11"/>
     </row>
     <row r="235" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>488</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C235" s="11"/>
     </row>
     <row r="236" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="B236" s="10" t="s">
-        <v>463</v>
+        <v>496</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>207</v>
+        <v>488</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A238" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B238" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C238" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A238" s="5" t="s">
+    <row r="239" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A239" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B239" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C239" s="3" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A239" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="B239" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>458</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>507</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>118</v>
@@ -4765,282 +4774,293 @@
     </row>
     <row r="244" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A245" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A247" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B247" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C247" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A247" s="5" t="s">
+    <row r="248" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A248" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B248" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C248" s="3" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B248" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>293</v>
+        <v>519</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>520</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>523</v>
+        <v>293</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B251" s="10" t="s">
-        <v>525</v>
+        <v>522</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A252" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>380</v>
+        <v>98</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A254" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B254" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C254" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A254" s="5" t="s">
+    <row r="255" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A255" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B255" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C255" s="3" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A257" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A259" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B259" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C259" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A259" s="5" t="s">
+    <row r="260" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A260" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B260" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C260" s="3" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A260" s="15" t="s">
+    <row r="261" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A261" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="B261" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C261" s="3" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A261" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>549</v>
+        <v>106</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A264" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B264" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C264" s="3" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A264" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="B264" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A265" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A266" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B266" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C266" s="3" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A266" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A268" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B267" s="12" t="s">
+      <c r="B268" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C268" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B269" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C269" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C267" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C268">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C269">
       <sortCondition ref="A1:A267"/>
     </sortState>
   </autoFilter>
@@ -5071,70 +5091,70 @@
     <hyperlink ref="B54" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="B61" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="B65" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B70" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B73" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B74" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B78" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B90" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B91" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B95" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B96" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B99" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B100" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B101" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B102" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B103" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B107" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B108" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B111" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B114" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B116" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B117" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B118" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B119" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B121" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B126" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B127" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B129" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B132" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B134" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B137" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B138" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B143" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B149" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B151" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B152" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B156" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B162" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B165" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B169" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B177" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B179" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B182" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B188" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B208" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B209" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B211" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B214" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B218" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B219" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B222" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B224" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B230" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B232" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B235" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B237" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B240" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B242" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B243" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B244" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B246" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B249" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B250" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B253" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B255" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B256" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B257" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B71" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B74" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B75" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B79" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B91" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B92" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B96" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B97" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B100" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B101" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B102" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B103" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B104" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B108" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B109" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B112" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B115" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B117" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B118" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B119" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B120" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B122" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B127" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B128" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B130" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B133" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B135" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B138" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B139" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B144" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B150" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B152" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B153" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B157" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B163" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B166" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B170" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B178" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B180" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B183" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B189" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B209" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B210" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B212" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B215" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B219" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B220" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B223" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B225" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B231" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B233" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B236" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B238" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B241" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B243" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B244" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B245" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B247" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B250" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B251" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B254" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B256" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B257" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B258" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xlsx-to-json/STO Acronyms.xlsx
+++ b/xlsx-to-json/STO Acronyms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\xlsx-to-json\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0174D615-6925-416E-B51C-69BF69B6545E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC9B648-B4B8-4C00-A3CB-EFFC542AEE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="576">
   <si>
     <t>A2B</t>
   </si>
@@ -1744,6 +1747,21 @@
   </si>
   <si>
     <t>generic term for cannons and beams</t>
+  </si>
+  <si>
+    <t>WEO</t>
+  </si>
+  <si>
+    <t>Weapon Emitter Overdrive</t>
+  </si>
+  <si>
+    <t>Starship Trait (Infinity Promotional Ship)</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Terran Goodbye</t>
   </si>
 </sst>
 </file>
@@ -1818,15 +1836,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1842,22 +1860,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2077,11 +2085,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:C270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D248" sqref="A248:XFD248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2476,13 +2484,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -2804,10 +2812,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -2818,7 +2826,7 @@
       <c r="A67" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -2829,7 +2837,7 @@
       <c r="A68" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -2840,7 +2848,7 @@
       <c r="A69" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -2848,7 +2856,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -2873,7 +2881,7 @@
       <c r="A72" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -2914,10 +2922,10 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -2936,7 +2944,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -2969,10 +2977,10 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="2" t="s">
         <v>564</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -2991,10 +2999,10 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3002,10 +3010,10 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -3024,10 +3032,10 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -3046,10 +3054,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -3079,7 +3087,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -3090,10 +3098,10 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -3115,7 +3123,7 @@
       <c r="A94" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -3123,7 +3131,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -3134,7 +3142,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -3159,7 +3167,7 @@
       <c r="A98" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B98" s="13" t="str">
+      <c r="B98" s="10" t="str">
         <f>HYPERLINK("https://sto.fandom.com/wiki/Skill:_Electro-Plasma_System_Flow", "Electro-Plasma System Flow")</f>
         <v>Electro-Plasma System Flow</v>
       </c>
@@ -3237,7 +3245,7 @@
       <c r="A105" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -3248,7 +3256,7 @@
       <c r="A106" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -3267,7 +3275,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -3278,10 +3286,10 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -3314,7 +3322,7 @@
       <c r="A112" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -3325,7 +3333,7 @@
       <c r="A113" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -3347,7 +3355,7 @@
       <c r="A115" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -3377,7 +3385,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B118" s="4" t="s">
@@ -3388,7 +3396,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -3410,7 +3418,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -3421,10 +3429,10 @@
       </c>
     </row>
     <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="2" t="s">
         <v>260</v>
       </c>
       <c r="C122" s="3" t="s">
@@ -3487,10 +3495,10 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="2" t="s">
         <v>270</v>
       </c>
       <c r="C128" s="3" t="s">
@@ -3498,7 +3506,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -3531,7 +3539,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
+      <c r="A132" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -3553,7 +3561,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -3586,7 +3594,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B137" s="4" t="s">
@@ -3597,7 +3605,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -3641,10 +3649,10 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C142" s="3" t="s">
@@ -3655,7 +3663,7 @@
       <c r="A143" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="11" t="s">
         <v>304</v>
       </c>
       <c r="C143" s="3" t="s">
@@ -3699,7 +3707,7 @@
       <c r="A147" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="2" t="s">
         <v>314</v>
       </c>
       <c r="C147" s="3" t="s">
@@ -3710,7 +3718,7 @@
       <c r="A148" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C148" s="3" t="s">
@@ -3732,7 +3740,7 @@
       <c r="A150" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C150" s="3" t="s">
@@ -3751,7 +3759,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B152" s="4" t="s">
@@ -3762,10 +3770,10 @@
       </c>
     </row>
     <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="2" t="s">
         <v>326</v>
       </c>
       <c r="C153" s="3" t="s">
@@ -3795,7 +3803,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="15" t="s">
+      <c r="A156" s="1" t="s">
         <v>331</v>
       </c>
       <c r="B156" s="7" t="s">
@@ -3809,7 +3817,7 @@
       <c r="A157" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="9" t="s">
         <v>335</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -3817,10 +3825,10 @@
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C158" s="3" t="s">
@@ -3842,7 +3850,7 @@
       <c r="A160" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="2" t="s">
         <v>341</v>
       </c>
       <c r="C160" s="3" t="s">
@@ -3853,7 +3861,7 @@
       <c r="A161" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="2" t="s">
         <v>343</v>
       </c>
       <c r="C161" s="3" t="s">
@@ -3875,7 +3883,7 @@
       <c r="A163" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="2" t="s">
         <v>347</v>
       </c>
       <c r="C163" s="3" t="s">
@@ -3886,7 +3894,7 @@
       <c r="A164" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="2" t="s">
         <v>350</v>
       </c>
       <c r="C164" s="3" t="s">
@@ -3894,7 +3902,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A165" s="15" t="s">
+      <c r="A165" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B165" s="4" t="s">
@@ -3905,10 +3913,10 @@
       </c>
     </row>
     <row r="166" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A166" s="15" t="s">
+      <c r="A166" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="2" t="s">
         <v>355</v>
       </c>
       <c r="C166" s="3" t="s">
@@ -3927,10 +3935,10 @@
       </c>
     </row>
     <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="2" t="s">
         <v>359</v>
       </c>
       <c r="C168" s="3" t="s">
@@ -3938,7 +3946,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -3960,10 +3968,10 @@
       </c>
     </row>
     <row r="171" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A171" s="15" t="s">
+      <c r="A171" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C171" s="3" t="s">
@@ -3971,10 +3979,10 @@
       </c>
     </row>
     <row r="172" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A172" s="15" t="s">
+      <c r="A172" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="2" t="s">
         <v>369</v>
       </c>
       <c r="C172" s="3" t="s">
@@ -4007,7 +4015,7 @@
       <c r="A175" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C175" s="3" t="s">
@@ -4018,7 +4026,7 @@
       <c r="A176" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C176" s="3" t="s">
@@ -4040,7 +4048,7 @@
       <c r="A178" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="2" t="s">
         <v>382</v>
       </c>
       <c r="C178" s="3" t="s">
@@ -4062,7 +4070,7 @@
       <c r="A180" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C180" s="3" t="s">
@@ -4070,10 +4078,10 @@
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A181" s="15" t="s">
+      <c r="A181" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="2" t="s">
         <v>388</v>
       </c>
       <c r="C181" s="3" t="s">
@@ -4081,7 +4089,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A182" s="15" t="s">
+      <c r="A182" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B182" s="4" t="s">
@@ -4103,10 +4111,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A184" s="15" t="s">
+      <c r="A184" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="2" t="s">
         <v>394</v>
       </c>
       <c r="C184" s="3" t="s">
@@ -4114,10 +4122,10 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C185" s="3" t="s">
@@ -4147,7 +4155,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A188" s="15" t="s">
+      <c r="A188" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B188" s="4" t="s">
@@ -4158,10 +4166,10 @@
       </c>
     </row>
     <row r="189" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A189" s="15" t="s">
+      <c r="A189" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="2" t="s">
         <v>402</v>
       </c>
       <c r="C189" s="3" t="s">
@@ -4180,10 +4188,10 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="15" t="s">
+      <c r="A191" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="2" t="s">
         <v>406</v>
       </c>
       <c r="C191" s="3" t="s">
@@ -4224,10 +4232,10 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A195" s="15" t="s">
+      <c r="A195" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="2" t="s">
         <v>418</v>
       </c>
       <c r="C195" s="3" t="s">
@@ -4246,10 +4254,10 @@
       </c>
     </row>
     <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="15" t="s">
+      <c r="A197" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="2" t="s">
         <v>422</v>
       </c>
       <c r="C197" s="3" t="s">
@@ -4268,10 +4276,10 @@
       </c>
     </row>
     <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A199" s="15" t="s">
+      <c r="A199" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="2" t="s">
         <v>426</v>
       </c>
       <c r="C199" s="3" t="s">
@@ -4279,10 +4287,10 @@
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A200" s="15" t="s">
+      <c r="A200" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="2" t="s">
         <v>428</v>
       </c>
       <c r="C200" s="3" t="s">
@@ -4348,7 +4356,7 @@
       <c r="A206" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="2" t="s">
         <v>440</v>
       </c>
       <c r="C206" s="3" t="s">
@@ -4359,7 +4367,7 @@
       <c r="A207" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="2" t="s">
         <v>442</v>
       </c>
       <c r="C207" s="3" t="s">
@@ -4389,10 +4397,10 @@
       </c>
     </row>
     <row r="210" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A210" s="15" t="s">
+      <c r="A210" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="2" t="s">
         <v>449</v>
       </c>
       <c r="C210" s="3" t="s">
@@ -4400,7 +4408,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A211" s="15" t="s">
+      <c r="A211" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B211" s="4" t="s">
@@ -4425,7 +4433,7 @@
       <c r="A213" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="2" t="s">
         <v>455</v>
       </c>
       <c r="C213" s="3" t="s">
@@ -4444,10 +4452,10 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A215" s="15" t="s">
+      <c r="A215" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="2" t="s">
         <v>461</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -4455,10 +4463,10 @@
       </c>
     </row>
     <row r="216" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A216" s="15" t="s">
+      <c r="A216" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="2" t="s">
         <v>460</v>
       </c>
       <c r="C216" s="3" t="s">
@@ -4477,7 +4485,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A218" s="15" t="s">
+      <c r="A218" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B218" s="4" t="s">
@@ -4488,7 +4496,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A219" s="15" t="s">
+      <c r="A219" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B219" s="4" t="s">
@@ -4521,7 +4529,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A222" s="15" t="s">
+      <c r="A222" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B222" s="4" t="s">
@@ -4590,7 +4598,7 @@
       <c r="A228" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="2" t="s">
         <v>481</v>
       </c>
       <c r="C228" s="3" t="s">
@@ -4601,7 +4609,7 @@
       <c r="A229" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="2" t="s">
         <v>475</v>
       </c>
       <c r="C229" s="3" t="s">
@@ -4609,7 +4617,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A230" s="15" t="s">
+      <c r="A230" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B230" s="4" t="s">
@@ -4623,7 +4631,7 @@
       <c r="A231" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="2" t="s">
         <v>499</v>
       </c>
       <c r="C231" s="3" t="s">
@@ -4631,7 +4639,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A232" s="15" t="s">
+      <c r="A232" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B232" s="4" t="s">
@@ -4656,13 +4664,13 @@
       <c r="A234" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C234" s="11"/>
+      <c r="C234" s="3"/>
     </row>
     <row r="235" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A235" s="15" t="s">
+      <c r="A235" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B235" s="4" t="s">
@@ -4676,7 +4684,7 @@
       <c r="A236" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="2" t="s">
         <v>460</v>
       </c>
       <c r="C236" s="3" t="s">
@@ -4684,7 +4692,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="1" t="s">
         <v>496</v>
       </c>
       <c r="B237" s="4" t="s">
@@ -4709,7 +4717,7 @@
       <c r="A239" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="2" t="s">
         <v>455</v>
       </c>
       <c r="C239" s="3" t="s">
@@ -4761,7 +4769,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A244" s="15" t="s">
+      <c r="A244" s="1" t="s">
         <v>509</v>
       </c>
       <c r="B244" s="4" t="s">
@@ -4775,7 +4783,7 @@
       <c r="A245" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="B245" s="2" t="s">
         <v>512</v>
       </c>
       <c r="C245" s="3" t="s">
@@ -4783,7 +4791,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A246" s="15" t="s">
+      <c r="A246" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B246" s="4" t="s">
@@ -4805,233 +4813,255 @@
       </c>
     </row>
     <row r="248" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B248" s="10" t="s">
-        <v>517</v>
+      <c r="A248" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>575</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>290</v>
+        <v>516</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B251" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C251" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A251" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="B251" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B253" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C253" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A253" s="15" t="s">
+    <row r="254" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B254" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C254" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A254" s="5" t="s">
+    <row r="255" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B255" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C255" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+    <row r="256" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B256" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C256" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A256" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B258" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C258" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A258" s="15" t="s">
+    <row r="259" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B259" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C259" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A259" s="5" t="s">
+    <row r="260" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A260" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B260" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C260" s="3" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A260" s="15" t="s">
+    <row r="261" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="B261" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C261" s="3" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A261" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>546</v>
+        <v>103</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A264" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B264" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C264" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A264" s="15" t="s">
+    <row r="265" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B264" s="10" t="s">
+      <c r="B265" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C265" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A265" s="15" t="s">
+    <row r="266" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B266" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C266" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A266" s="5" t="s">
+    <row r="267" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A268" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B268" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C268" s="3" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A267" s="5" t="s">
+    <row r="269" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A269" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B267" s="12" t="s">
+      <c r="B269" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C269" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="15" t="s">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="B270" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C270" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5121,12 +5151,12 @@
     <hyperlink ref="B243" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
     <hyperlink ref="B244" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="B246" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B249" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B250" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B253" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B255" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B256" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B257" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B250" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B251" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B254" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B256" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B257" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B258" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId91"/>
